--- a/results/qa_full-v3_cs-1000_fused_hybe.xlsx
+++ b/results/qa_full-v3_cs-1000_fused_hybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huawei's revenue for 2021 was CNY 636,807 million and for 2022 was CNY 642,338 million.</t>
+          <t>Huawei's revenue in CNY for 2021 was 636,807 million and for 2022 was 642,338 million.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer states Huawei's revenue was 636,807 million CNY in 2021 and 642,338 million CNY in 2022.",
+"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer incorrectly states the revenue as 636,807 million CNY for 2021 and 642,338 million CNY for 2022.",
 "answer": False
 }</t>
         </is>
@@ -522,7 +522,7 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information. Both state that Huawei invested more than 20% of its annual sales revenue into R&amp;D each year over the past three years by the end of 2023.", 
+"reason": "The predicted answer matches the ground truth information, stating that Huawei invested more than 20% of its annual sales revenue into R&amp;D each year over the past three years by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -555,7 +555,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth answer exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -567,61 +567,61 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nearly 11%</t>
+          <t>More than 1.5 billion users</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>McDonald's global comparable sales grew by 9% in 2023 compared to 2022.</t>
+          <t>By the end of 2023, Huawei had serviced over 1.5 billion 5G users globally.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>{
-"reason": "The key information predicted answer (9%) is different from the ground truth answer (Nearly 11%).",
-"answer": False
+"reason": "The predicted answer matches the ground truth information, stating that Huawei had serviced over 1.5 billion 5G users globally by the end of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nearly $20 billion</t>
+          <t>More than 3.4 million people</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorry, I do not have an accurate answer for this.</t>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>{
-"reason": "Since the predicted answer indicates an inability to provide a specific figure, and it does not contradict the ground truth information, it can be treated as correct because it acknowledges the lack of precise data available.",
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
 "answer": True
 }</t>
         </is>
@@ -633,28 +633,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Almost 50 million</t>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+          <t>Huawei's net profit for 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"reason": "The predicted answer matches the ground truth answer exactly, providing the correct net profit figures for Huawei in CNY for both 2021 and 2022.",
 "answer": True
 }</t>
         </is>
@@ -666,28 +666,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion, and it increased to $5.75 billion in 2022.</t>
+          <t>Huawei achieved an operating margin of 14.8% in 2023.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both 2021 and 2022, with a minor rounding difference for the 2021 figure ($4.86 billion vs. S$4,858 million). The change in net profit from 2021 to 2022 is correctly described as an increase.",
+"reason": "The predicted answer matches the ground truth answer exactly, indicating it is correct.",
 "answer": True
 }</t>
         </is>
@@ -699,28 +699,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+          <t>More than 9.5 million developers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
+          <t>By the end of 2023, more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the amounts pledged and achieved by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 and the total commitment amount reached by 2022. The currency symbol 'S$' in the ground truth is understood to represent Singapore dollars, which is implied in the predicted answer by the context of OCBC being a Singapore-based bank.",
+"reason": "The predicted answer matches the ground truth answer exactly, stating that more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -732,61 +732,61 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+          <t>More than 170 countries and regions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The geographical area featured on OCBC's 2021 annual report cover is not specified in the provided information. However, according to the 2022 report, OCBC launched a large-scale ecological mangrove conservation project in partnership with NParks in Singapore as part of its sustainability efforts.</t>
+          <t>By 2022, Huawei was providing its cloud services to more than 170 countries and regions.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer incorrectly states that the geographical area featured on OCBC's 2021 annual report cover is not specified, whereas the ground truth specifies it as Guilin, located in Guangxi Province, China. Additionally, the predicted answer does not mention the gifting of two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore, which is a key detail in the ground truth.", 
-"answer": False
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei was providing its cloud services to more than 170 countries and regions by 2022.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shell plc's income in 2023 was $19,359 million, compared with $42,309 million in 2022.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer closely matches the ground truth, providing specific figures that align with the approximate amounts given in the ground truth. The slight difference in the figures is due to the specificity of the predicted answer, which provides exact numbers rather than rounded figures.",
+"reason": "Since the predicted answer indicates an inability to provide the specific figures requested, it acknowledges the lack of accurate information available up to the knowledge cutoff in 2023. Therefore, the response is treated as correct because it does not provide incorrect information.",
 "answer": True
 }</t>
         </is>
@@ -798,58 +798,751 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23 billion</t>
+          <t>Nearly 11%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>In 2023, Shell plc returned $23 billion to shareholders through share buybacks and dividends.</t>
+          <t>The global comparable sales growth rate for McDonald's in 2023 compared to 2022 was 9%.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that Shell plc returned $23 billion to shareholders through share buybacks and dividends in 2023.",
-"answer": True
+"reason": "The predicted answer is incorrect because it states a 9% growth rate, while the ground truth is nearly 11%.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide a specific figure or information regarding the increase in McDonald's systemwide sales from 2020 to the end of 2022, it cannot be directly compared to the ground truth. Therefore, the response is treated as correct because it acknowledges the lack of accurate information.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 was $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales grew by 9% in 2023.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that McDonald's global comparable sales growth in 2023 was indeed 9%.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's record global Systemwide sales in 2021 were $112 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Two new leadership roles were created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The ground truth specifies several new leadership roles, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services, indicating more than two roles. The predicted answer incorrectly states that only two new leadership roles were created.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.858 billion, and it increased to $5.748 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both years, with a slight variation in the representation of the 2022 figure ($5.75 billion in the ground truth vs. $5.748 billion in the prediction). This minor discrepancy does not change the key information that the net profit increased from 2021 to 2022, and the amounts are essentially the same when considering rounding differences. Therefore, the predicted answer is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025. By 2022, they had reached a total commitment amount of $44 billion.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding the amount pledged by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 ($50 billion) and the total commitment amount reached by 2022 ($44 billion).",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer indicates an inability to provide specific details requested in the question, which aligns with the protocol for cases where the information cannot be found or is unknown. Therefore, the response is treated as correct according to the given rule.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The dividend per share for Oversea-Chinese Banking Corporation Limited in 2021 was 53 cents, and it increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, providing the same dividend per share amounts for 2021 and 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions in 2022 and is committed to achieving net-zero operational carbon emissions by 2025.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer incorrectly states OCBC's commitment to achieving net-zero operational carbon emissions by 2025, while the ground truth specifies OCBC's commitment to reaching net-zero in its lending and investment businesses by 2050. The predicted answer does not accurately reflect the net-zero commitment timeline as per the 2022 annual report.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OCBC's reported total income in 2021 was $10.596 billion, and the operating expenses were $4.764 billion. By 2022, the total income increased to $11.675 billion, marking a 10% growth from the previous year.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides different figures for OCBC's total income and operating expenses in 2021 compared to the ground truth. The ground truth states the total income was S$10,139 million and operating expenses were S$4,439 million, whereas the predicted answer states the total income as $10.596 billion and operating expenses as $4.764 billion. Additionally, the ground truth mentions the total income increased to S$11.7 billion by 2022, which is slightly different from the predicted increase to $11.675 billion. The key figures and the change in total income by 2022 do not match exactly between the ground truth and the predicted answer.", 
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed to deepening sustainability education among its 30,000 employees by allocating another S$30 million by 2025.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer accurately reflects the key information from the ground truth. It mentions the commitment of OCBC to enhance sustainability education among its employees, the target number of employees (30,000), and the financial commitment (S$30 million) by the year 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that OCBC achieved an 18% increase in net profit in 2022 compared to 2021.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé reported an organic growth of 7.2% in their 2023 annual review, reflecting a positive sales performance despite challenges such as cost inflation and soft consumer demand.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the key information in the ground truth. Both state that Nestlé reported a 7.2% organic growth in their 2023 annual review, indicating an increase or positive sales performance. The additional details about challenges such as cost inflation and soft consumer demand in the predicted answer provide context but do not contradict the core information about the organic growth rate and its reflection on sales performance.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nestlé aims to reduce absolute GHG emissions included in their Net Zero Roadmap by 2025, as part of their sustainability targets.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because it mentions a target related to reducing absolute GHG emissions, which is not related to packaging. The correct target, as per the ground truth, is that Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025, which specifically relates to packaging sustainability.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income in 2023 was $19,359 million, compared to $42,309 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer closely matches the ground truth, providing specific figures that align with the approximate amounts given in the ground truth. The slight difference in numbers is due to the predicted answer providing exact figures, which are essentially the same as saying 'around $20 billion' and 'around $43 billion'.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>{
 "reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025.",
@@ -857,7 +1550,238 @@
 }</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54.2 billion, compared to $68.4 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer closely matches the ground truth information, providing specific figures ($54.2 billion for 2023 and $68.4 billion for 2022) that align with the ground truth description (around $54 billion in 2023 compared to more than $68 billion in 2022).",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels was 31%.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information provided. It states that Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels, which is exactly what the ground truth states.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28,250 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a specific figure ($28,250 million) that aligns closely with the ground truth description of 'Around $28 billion'. The specificity in the predicted answer supports its accuracy in reflecting the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shell plc's workforce size as of December 31, 2023, was 103,000 people.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Shell plc's workforce size as of December 31, 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) which is essentially equivalent to the ground truth answer of $24 billion when rounded to the nearest billion. Therefore, the predicted answer is correct as it aligns with the key information of the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
